--- a/academias/Física - Estadisticos 20211.xlsx
+++ b/academias/Física - Estadisticos 20211.xlsx
@@ -702,22 +702,25 @@
         <v>38</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>26.32</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -734,22 +737,25 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>86.95999999999999</v>
+      </c>
+      <c r="I9">
+        <v>8.699999999999999</v>
       </c>
       <c r="J9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>86.95999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,22 +772,25 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>90.31999999999999</v>
+      </c>
+      <c r="I10">
+        <v>9.300000000000001</v>
       </c>
       <c r="J10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>90.31999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,22 +807,25 @@
         <v>38</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>84.20999999999999</v>
+      </c>
+      <c r="I11">
+        <v>9.199999999999999</v>
       </c>
       <c r="J11">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>84.20999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,22 +842,25 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>9.09</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>90.91</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>90.91</v>
       </c>
     </row>
   </sheetData>
@@ -1510,22 +1525,25 @@
         <v>38</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>26.32</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1542,22 +1560,25 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>13.04</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>86.95999999999999</v>
+      </c>
+      <c r="I9">
+        <v>8.699999999999999</v>
       </c>
       <c r="J9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>86.95999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1574,22 +1595,25 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>90.31999999999999</v>
+      </c>
+      <c r="I10">
+        <v>9.300000000000001</v>
       </c>
       <c r="J10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>90.31999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1606,22 +1630,25 @@
         <v>38</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>84.20999999999999</v>
+      </c>
+      <c r="I11">
+        <v>9.199999999999999</v>
       </c>
       <c r="J11">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>84.20999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1638,22 +1665,25 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>9.09</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>90.91</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>90.91</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Física - Estadisticos 20211.xlsx
+++ b/academias/Física - Estadisticos 20211.xlsx
@@ -510,22 +510,25 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>25.71</v>
+      </c>
+      <c r="I2">
+        <v>8.800000000000001</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -542,22 +545,25 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>61.54</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>38.46</v>
+      </c>
+      <c r="I3">
+        <v>6.8</v>
       </c>
       <c r="J3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -574,22 +580,25 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>4.35</v>
+      </c>
+      <c r="I4">
+        <v>8.1</v>
       </c>
       <c r="J4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,22 +615,25 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>53.13</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>46.88</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -638,22 +650,25 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>79.41</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>20.59</v>
+      </c>
+      <c r="I6">
+        <v>8.1</v>
       </c>
       <c r="J6">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -670,22 +685,25 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>72.22</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>27.78</v>
+      </c>
+      <c r="I7">
+        <v>7.7</v>
       </c>
       <c r="J7">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -737,25 +755,25 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>13.04</v>
+        <v>34.78</v>
       </c>
       <c r="H9">
-        <v>86.95999999999999</v>
+        <v>65.22</v>
       </c>
       <c r="I9">
-        <v>8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>86.95999999999999</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,25 +790,25 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>9.68</v>
+        <v>48.39</v>
       </c>
       <c r="H10">
-        <v>90.31999999999999</v>
+        <v>51.61</v>
       </c>
       <c r="I10">
-        <v>9.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>90.31999999999999</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,25 +825,25 @@
         <v>38</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>15.79</v>
+        <v>42.11</v>
       </c>
       <c r="H11">
-        <v>84.20999999999999</v>
+        <v>57.89</v>
       </c>
       <c r="I11">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K11">
-        <v>84.20999999999999</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -842,25 +860,25 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>9.09</v>
+        <v>39.39</v>
       </c>
       <c r="H12">
-        <v>90.91</v>
+        <v>60.61</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12">
-        <v>90.91</v>
+        <v>39.39</v>
       </c>
     </row>
   </sheetData>
@@ -1333,22 +1351,25 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>25.71</v>
+      </c>
+      <c r="I2">
+        <v>8.800000000000001</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1365,22 +1386,25 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>61.54</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>38.46</v>
+      </c>
+      <c r="I3">
+        <v>6.8</v>
       </c>
       <c r="J3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1397,22 +1421,25 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>4.35</v>
+      </c>
+      <c r="I4">
+        <v>8.1</v>
       </c>
       <c r="J4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1429,22 +1456,25 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>53.13</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>46.88</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1461,22 +1491,25 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>79.41</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>20.59</v>
+      </c>
+      <c r="I6">
+        <v>8.1</v>
       </c>
       <c r="J6">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1493,22 +1526,25 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>72.22</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>27.78</v>
+      </c>
+      <c r="I7">
+        <v>7.7</v>
       </c>
       <c r="J7">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>27.78</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1560,25 +1596,25 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>13.04</v>
+        <v>34.78</v>
       </c>
       <c r="H9">
-        <v>86.95999999999999</v>
+        <v>65.22</v>
       </c>
       <c r="I9">
-        <v>8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>86.95999999999999</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1595,25 +1631,25 @@
         <v>31</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>9.68</v>
+        <v>48.39</v>
       </c>
       <c r="H10">
-        <v>90.31999999999999</v>
+        <v>51.61</v>
       </c>
       <c r="I10">
-        <v>9.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>90.31999999999999</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1630,25 +1666,25 @@
         <v>38</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G11">
-        <v>15.79</v>
+        <v>42.11</v>
       </c>
       <c r="H11">
-        <v>84.20999999999999</v>
+        <v>57.89</v>
       </c>
       <c r="I11">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K11">
-        <v>84.20999999999999</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1665,25 +1701,25 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>9.09</v>
+        <v>39.39</v>
       </c>
       <c r="H12">
-        <v>90.91</v>
+        <v>60.61</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12">
-        <v>90.91</v>
+        <v>39.39</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Física - Estadisticos 20211.xlsx
+++ b/academias/Física - Estadisticos 20211.xlsx
@@ -510,25 +510,25 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>74.29000000000001</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H2">
-        <v>25.71</v>
+        <v>14.29</v>
       </c>
       <c r="I2">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>25.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -545,25 +545,25 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>61.54</v>
+        <v>69.23</v>
       </c>
       <c r="H3">
-        <v>38.46</v>
+        <v>30.77</v>
       </c>
       <c r="I3">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>38.46</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -580,25 +580,25 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>95.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -615,25 +615,25 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>53.13</v>
+        <v>62.5</v>
       </c>
       <c r="H5">
-        <v>46.88</v>
+        <v>37.5</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>46.88</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -650,25 +650,25 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>79.41</v>
+        <v>94.12</v>
       </c>
       <c r="H6">
-        <v>20.59</v>
+        <v>5.88</v>
       </c>
       <c r="I6">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>20.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -685,25 +685,25 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>72.22</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>27.78</v>
+        <v>25</v>
       </c>
       <c r="I7">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>27.78</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1351,25 +1351,25 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>74.29000000000001</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H2">
-        <v>25.71</v>
+        <v>14.29</v>
       </c>
       <c r="I2">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>25.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1386,25 +1386,25 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>61.54</v>
+        <v>69.23</v>
       </c>
       <c r="H3">
-        <v>38.46</v>
+        <v>30.77</v>
       </c>
       <c r="I3">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>38.46</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1421,25 +1421,25 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>95.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>4.35</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1456,25 +1456,25 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>53.13</v>
+        <v>62.5</v>
       </c>
       <c r="H5">
-        <v>46.88</v>
+        <v>37.5</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>46.88</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1491,25 +1491,25 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>79.41</v>
+        <v>94.12</v>
       </c>
       <c r="H6">
-        <v>20.59</v>
+        <v>5.88</v>
       </c>
       <c r="I6">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>20.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1526,25 +1526,25 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>72.22</v>
+        <v>75</v>
       </c>
       <c r="H7">
-        <v>27.78</v>
+        <v>25</v>
       </c>
       <c r="I7">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>27.78</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="8" spans="1:11">
